--- a/HURTO_SERIE_TEMPORAL_T3.xlsx
+++ b/HURTO_SERIE_TEMPORAL_T3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2172C-B865-4AFC-B9A5-9499B1B97DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E3065E-1941-40B6-8441-06222CB61796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC0DC329-1201-4BA7-9228-FFAF1E7E72F8}"/>
   </bookViews>
@@ -33,13 +33,6 @@
     <t>MES</t>
   </si>
   <si>
-    <t>N_
-RM</t>
-  </si>
-  <si>
-    <t>VÍCTIMA_RM__HOMBRE</t>
-  </si>
-  <si>
     <t>VÍCTIMA_RM_MUJER</t>
   </si>
   <si>
@@ -47,24 +40,6 @@
   </si>
   <si>
     <t>VÍCTIMARIO_RM_HOMBRE</t>
-  </si>
-  <si>
-    <t>EDAD_VÍCTIMA_RM_Menos_de_14_años</t>
-  </si>
-  <si>
-    <t>EDAD_VÍCTIMA_RM_14_17_años</t>
-  </si>
-  <si>
-    <t>EDAD_VÍCTIMA_RM_18_29_años</t>
-  </si>
-  <si>
-    <t>EDAD_VÍCTIMA_RM_30_44_años</t>
-  </si>
-  <si>
-    <t>EDAD_VÍCTIMA_RM_45_64_años</t>
-  </si>
-  <si>
-    <t>EDAD_VÍCTIMA_RM_65_años_y_más</t>
   </si>
   <si>
     <t>POBLACIÓN_RM</t>
@@ -76,10 +51,34 @@
     <t>TASA_HURTO_PAÍS</t>
   </si>
   <si>
-    <t>N_TOTAL_PAÍS</t>
+    <t>FECHA</t>
   </si>
   <si>
-    <t>FECHA</t>
+    <t>EDAD_VÍCTIMA_RM_14_17</t>
+  </si>
+  <si>
+    <t>EDAD_VÍCTIMA_RM_18_29</t>
+  </si>
+  <si>
+    <t>EDAD_VÍCTIMA_RM_30_44</t>
+  </si>
+  <si>
+    <t>EDAD_VÍCTIMA_RM_45_64</t>
+  </si>
+  <si>
+    <t>EDAD_VÍCTIMA_RM_65_y_MÁS</t>
+  </si>
+  <si>
+    <t>N_HURTO_RM</t>
+  </si>
+  <si>
+    <t>N_HURTO_PAÍS</t>
+  </si>
+  <si>
+    <t>EDAD_VÍCTIMA_RM_MENOS_14</t>
+  </si>
+  <si>
+    <t>VÍCTIMA_RM_OMBRE</t>
   </si>
 </sst>
 </file>
@@ -214,19 +213,19 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,10 +560,10 @@
   <dimension ref="A1:R235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:R235"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +579,7 @@
     <col min="13" max="18" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -588,52 +587,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">

--- a/HURTO_SERIE_TEMPORAL_T3.xlsx
+++ b/HURTO_SERIE_TEMPORAL_T3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E3065E-1941-40B6-8441-06222CB61796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6AC897-7872-42C8-99BF-62D4C7BB85AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC0DC329-1201-4BA7-9228-FFAF1E7E72F8}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>EDAD_VÍCTIMA_RM_MENOS_14</t>
   </si>
   <si>
-    <t>VÍCTIMA_RM_OMBRE</t>
+    <t>VÍCTIMA_RM_HOMBRE</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
